--- a/testvec3388/catalog.xlsx
+++ b/testvec3388/catalog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="140" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="296" uniqueCount="47">
   <si>
     <t>TVID</t>
   </si>
@@ -106,6 +106,54 @@
   </si>
   <si>
     <t>testvec3388/tv15.csv</t>
+  </si>
+  <si>
+    <t>OriginalFilename</t>
+  </si>
+  <si>
+    <t>1_TIG_ACnopulse_900_IQ_time.iq</t>
+  </si>
+  <si>
+    <t>1_TIG_ACnopulse_900_IQ_time_2.iq</t>
+  </si>
+  <si>
+    <t>1_TIG_ACnopulse_24_IQ_time.iq</t>
+  </si>
+  <si>
+    <t>2_TIG_ACnopulse_900_IQ_time.iq</t>
+  </si>
+  <si>
+    <t>2_TIG_ACnopulse_24GHz_IQ_time.iq</t>
+  </si>
+  <si>
+    <t>3_TIG_ACpulse_900_IQ_time.iq</t>
+  </si>
+  <si>
+    <t>3_TIG_ACpulse_24GHz_IQ_time.iq</t>
+  </si>
+  <si>
+    <t>4_TIG_ACpulse_900_IQ_time.iq</t>
+  </si>
+  <si>
+    <t>4_TIG_ACpulse_24GHz_IQ_time.iq</t>
+  </si>
+  <si>
+    <t>5_TIG_ACnopulse_900_IQ_time.iq</t>
+  </si>
+  <si>
+    <t>5_TIG_ACnopulse_24GHz_IQ_time.iq</t>
+  </si>
+  <si>
+    <t>6_TIG_DCnopulse_900_IQ_time.iq</t>
+  </si>
+  <si>
+    <t>6_TIG_DCnopulse_24GHz_IQ_time.iq</t>
+  </si>
+  <si>
+    <t>11_TIG_DCnopulse_900_IQ_time.iq</t>
+  </si>
+  <si>
+    <t>11_TIG_DCnopulse_24GHz_IQ_time.iq</t>
   </si>
 </sst>
 </file>
@@ -151,7 +199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -167,6 +215,7 @@
     <col min="8" max="8" width="12.85546875" customWidth="true"/>
     <col min="9" max="9" width="10.140625" customWidth="true"/>
     <col min="10" max="10" width="19.42578125" customWidth="true"/>
+    <col min="11" max="11" width="33.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -200,6 +249,9 @@
       <c r="J1" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -232,6 +284,9 @@
       <c r="J2" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="K2" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
@@ -263,6 +318,9 @@
       </c>
       <c r="J3" s="0" t="s">
         <v>17</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -296,6 +354,9 @@
       <c r="J4" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="K4" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
@@ -328,6 +389,9 @@
       <c r="J5" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="K5" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
@@ -359,6 +423,9 @@
       </c>
       <c r="J6" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -392,6 +459,9 @@
       <c r="J7" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="K7" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -424,6 +494,9 @@
       <c r="J8" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="K8" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -456,6 +529,9 @@
       <c r="J9" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="K9" s="0" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
@@ -487,6 +563,9 @@
       </c>
       <c r="J10" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -520,6 +599,9 @@
       <c r="J11" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="K11" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
@@ -551,6 +633,9 @@
       </c>
       <c r="J12" s="0" t="s">
         <v>26</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -584,6 +669,9 @@
       <c r="J13" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="K13" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
@@ -616,6 +704,9 @@
       <c r="J14" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="K14" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
@@ -648,6 +739,9 @@
       <c r="J15" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="K15" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
@@ -680,6 +774,9 @@
       <c r="J16" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="K16" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/testvec3388/catalog.xlsx
+++ b/testvec3388/catalog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="296" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="382" uniqueCount="47">
   <si>
     <t>TVID</t>
   </si>
